--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntng1-Lrrc4c.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntng1-Lrrc4c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Lrrc4c</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +525,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -531,7 +534,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.05078199999999999</v>
+        <v>0.050782</v>
       </c>
       <c r="H2">
         <v>0.152346</v>
@@ -540,42 +543,42 @@
         <v>0.02036584351830488</v>
       </c>
       <c r="J2">
-        <v>0.02036584351830487</v>
+        <v>0.02036584351830488</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.652639666666667</v>
+        <v>0.03930233333333333</v>
       </c>
       <c r="N2">
-        <v>7.957919</v>
+        <v>0.117907</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.01459999261994996</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.01459999261994996</v>
       </c>
       <c r="Q2">
-        <v>0.1347063475526666</v>
+        <v>0.001995851091333334</v>
       </c>
       <c r="R2">
-        <v>1.212357127974</v>
+        <v>0.017962659822</v>
       </c>
       <c r="S2">
-        <v>0.02036584351830488</v>
+        <v>0.0002973411650663069</v>
       </c>
       <c r="T2">
-        <v>0.02036584351830487</v>
+        <v>0.0002973411650663069</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -587,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.442706666666667</v>
+        <v>0.050782</v>
       </c>
       <c r="H3">
-        <v>7.32812</v>
+        <v>0.152346</v>
       </c>
       <c r="I3">
-        <v>0.9796341564816952</v>
+        <v>0.02036584351830488</v>
       </c>
       <c r="J3">
-        <v>0.9796341564816952</v>
+        <v>0.02036584351830488</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,22 +620,146 @@
         <v>7.957919</v>
       </c>
       <c r="O3">
+        <v>0.98540000738005</v>
+      </c>
+      <c r="P3">
+        <v>0.9854000073800501</v>
+      </c>
+      <c r="Q3">
+        <v>0.1347063475526667</v>
+      </c>
+      <c r="R3">
+        <v>1.212357127974</v>
+      </c>
+      <c r="S3">
+        <v>0.02006850235323857</v>
+      </c>
+      <c r="T3">
+        <v>0.02006850235323857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="P3">
+      <c r="G4">
+        <v>2.442706666666667</v>
+      </c>
+      <c r="H4">
+        <v>7.32812</v>
+      </c>
+      <c r="I4">
+        <v>0.9796341564816952</v>
+      </c>
+      <c r="J4">
+        <v>0.9796341564816952</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.03930233333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.117907</v>
+      </c>
+      <c r="O4">
+        <v>0.01459999261994996</v>
+      </c>
+      <c r="P4">
+        <v>0.01459999261994996</v>
+      </c>
+      <c r="Q4">
+        <v>0.09600407164888888</v>
+      </c>
+      <c r="R4">
+        <v>0.86403664484</v>
+      </c>
+      <c r="S4">
+        <v>0.01430265145488365</v>
+      </c>
+      <c r="T4">
+        <v>0.01430265145488365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="Q3">
+      <c r="G5">
+        <v>2.442706666666667</v>
+      </c>
+      <c r="H5">
+        <v>7.32812</v>
+      </c>
+      <c r="I5">
+        <v>0.9796341564816952</v>
+      </c>
+      <c r="J5">
+        <v>0.9796341564816952</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2.652639666666667</v>
+      </c>
+      <c r="N5">
+        <v>7.957919</v>
+      </c>
+      <c r="O5">
+        <v>0.98540000738005</v>
+      </c>
+      <c r="P5">
+        <v>0.9854000073800501</v>
+      </c>
+      <c r="Q5">
         <v>6.479620598031111</v>
       </c>
-      <c r="R3">
+      <c r="R5">
         <v>58.31658538228</v>
       </c>
-      <c r="S3">
-        <v>0.9796341564816952</v>
-      </c>
-      <c r="T3">
-        <v>0.9796341564816952</v>
+      <c r="S5">
+        <v>0.9653315050268114</v>
+      </c>
+      <c r="T5">
+        <v>0.9653315050268115</v>
       </c>
     </row>
   </sheetData>
